--- a/Stock Trades.xlsx
+++ b/Stock Trades.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40868AC6-39E0-4530-A947-91BD19B07D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084D6D90-F4EB-4F37-ADEF-46650D73E51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Buy" sheetId="1" r:id="rId1"/>
+    <sheet name="Sell" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -48,25 +49,32 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="2">
     <bk>
       <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Ticker</t>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>STOCK TRADES</t>
   </si>
   <si>
     <t>Buy Chart</t>
@@ -83,15 +91,18 @@
   <si>
     <t>Time : Freq.</t>
   </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>3M:1D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,21 +113,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -140,6 +136,12 @@
       <color theme="1"/>
       <name val="Congenial Black"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Congenial Black"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -155,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -194,43 +196,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -292,11 +257,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,76 +280,93 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -456,9 +449,13 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
     <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -476,6 +473,7 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
 </richValueRels>
 </file>
 
@@ -762,256 +760,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF1E3C9-2443-431B-AB8B-4EF10572E85D}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="92.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="100.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="C2" s="18">
         <v>45474</v>
       </c>
-      <c r="D3" s="15" t="e" vm="1">
+      <c r="D2" s="14" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="24"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="24"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="24"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="14"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="4" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="24"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="24"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="24"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="24"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:D16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D20:D33"/>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D15"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Sell">
-      <formula>NOT(ISERROR(SEARCH("Sell",D2)))</formula>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Sell">
+      <formula>NOT(ISERROR(SEARCH("Sell",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Buy">
-      <formula>NOT(ISERROR(SEARCH("Buy",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sell">
-      <formula>NOT(ISERROR(SEARCH("Sell",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Buy">
-      <formula>NOT(ISERROR(SEARCH("Buy",D19)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Buy">
+      <formula>NOT(ISERROR(SEARCH("Buy",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D19" xr:uid="{1510E42B-EB6F-43D5-9679-8ECDC9F94DD2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{1510E42B-EB6F-43D5-9679-8ECDC9F94DD2}">
       <formula1>"Buy Chart, Sell Chart"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9B4AE1-5029-41BF-8C82-0F69F61DC263}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="100.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="26">
+        <v>45503</v>
+      </c>
+      <c r="D2" s="16" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sell">
+      <formula>NOT(ISERROR(SEARCH("Sell",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Buy">
+      <formula>NOT(ISERROR(SEARCH("Buy",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{1510E42B-EB6F-43D5-9679-8ECDC9F94DD2}">
+      <formula1>"Buy Chart, Sell Chart"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Stock Trades.xlsx
+++ b/Stock Trades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084D6D90-F4EB-4F37-ADEF-46650D73E51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C51839-68C8-4764-AB5A-101E3D879669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Buy" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Ticker</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>3M:1D</t>
+  </si>
+  <si>
+    <t>TLRT</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +314,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -319,34 +341,6 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,6 +400,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7667624</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>200367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E513F5-986D-63C6-4DA8-14DEC2B01DAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209924" y="4257675"/>
+          <a:ext cx="7648575" cy="3686517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,17 +803,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF1E3C9-2443-431B-AB8B-4EF10572E85D}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="17" customWidth="1"/>
     <col min="4" max="4" width="100.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
   </cols>
@@ -782,7 +825,7 @@
       <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -796,104 +839,217 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="15">
         <v>45474</v>
       </c>
-      <c r="D2" s="14" t="e" vm="1">
+      <c r="D2" s="21" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="21"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15">
+        <v>45503</v>
+      </c>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D2:D15"/>
+    <mergeCell ref="D18:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Sell">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Sell">
       <formula>NOT(ISERROR(SEARCH("Sell",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Buy">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Buy">
       <formula>NOT(ISERROR(SEARCH("Buy",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{1510E42B-EB6F-43D5-9679-8ECDC9F94DD2}">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sell">
+      <formula>NOT(ISERROR(SEARCH("Sell",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Buy">
+      <formula>NOT(ISERROR(SEARCH("Buy",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D17" xr:uid="{1510E42B-EB6F-43D5-9679-8ECDC9F94DD2}">
       <formula1>"Buy Chart, Sell Chart"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -901,26 +1057,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9B4AE1-5029-41BF-8C82-0F69F61DC263}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="19" customWidth="1"/>
     <col min="4" max="4" width="100.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -934,92 +1090,92 @@
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="20">
         <v>45503</v>
       </c>
-      <c r="D2" s="16" t="e" vm="2">
+      <c r="D2" s="23" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:D15"/>
